--- a/ONCHO/OEM/Eq Guinea/1._OEM_Village.xlsx
+++ b/ONCHO/OEM/Eq Guinea/1._OEM_Village.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\docs\OEM\Eq Guinea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\OEM\Eq Guinea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51851A72-0165-4726-AAD0-949AB49925B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B6B76-27DB-44A8-A221-6F1F3E09E763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
   <si>
     <t>type</t>
   </si>
@@ -35,12 +35,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -74,12 +68,6 @@
     <t>label::Spanish</t>
   </si>
   <si>
-    <t>hint::Spanish</t>
-  </si>
-  <si>
-    <t>constraint_message::Spanish</t>
-  </si>
-  <si>
     <t>Spanish</t>
   </si>
   <si>
@@ -254,9 +242,6 @@
     <t>integer</t>
   </si>
   <si>
-    <t>oem_isci3_clusters_eqguinea</t>
-  </si>
-  <si>
     <t>03. Provincia</t>
   </si>
   <si>
@@ -270,6 +255,9 @@
   </si>
   <si>
     <t>1. Encuesta Comunidad</t>
+  </si>
+  <si>
+    <t>oem_isci3_clusters_eqguinea1</t>
   </si>
 </sst>
 </file>
@@ -691,27 +679,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9:I10"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="23.5859375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.8203125" customWidth="1"/>
-    <col min="4" max="5" width="20.1171875" customWidth="1"/>
-    <col min="6" max="6" width="18.46875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.05859375" customWidth="1"/>
-    <col min="8" max="8" width="18.46875" customWidth="1"/>
-    <col min="9" max="9" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.17578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1171875" customWidth="1"/>
+    <col min="5" max="5" width="9.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -719,454 +704,314 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    </row>
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1191,378 +1036,378 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A3" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A4" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A5" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>51</v>
-      </c>
       <c r="C29" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1575,43 +1420,43 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="56" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.17578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.76171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.52734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2">
         <v>20191023</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ONCHO/OEM/Eq Guinea/1._OEM_Village.xlsx
+++ b/ONCHO/OEM/Eq Guinea/1._OEM_Village.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\OEM\Eq Guinea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9B6B76-27DB-44A8-A221-6F1F3E09E763}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC4644A-F04A-4447-A9EC-8BD9260AD485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
   <si>
     <t>type</t>
   </si>
@@ -197,9 +197,6 @@
     <t>c_ClusterNotes</t>
   </si>
   <si>
-    <t xml:space="preserve">01. COORDENADAS </t>
-  </si>
-  <si>
     <t>02. Nombre de la Comunidad</t>
   </si>
   <si>
@@ -254,10 +251,73 @@
     <t>yes</t>
   </si>
   <si>
-    <t>1. Encuesta Comunidad</t>
-  </si>
-  <si>
-    <t>oem_isci3_clusters_eqguinea1</t>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>c_mapsme_gps_lat</t>
+  </si>
+  <si>
+    <t>c_mapsme_gps_lng</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>mapsme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.1. COORDENADAS </t>
+  </si>
+  <si>
+    <t>01.2. GPS de Maps.me</t>
+  </si>
+  <si>
+    <t>01.2.1. Latitud</t>
+  </si>
+  <si>
+    <t>01.2.2. Longitud</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>WARNING, you did not collect any GPS data. Please collect GPS data.</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>1. Encuesta Comunidad v2</t>
+  </si>
+  <si>
+    <t>oem_isci3_clusters_eqguinea1_v2</t>
+  </si>
+  <si>
+    <t>(string-length(${c_GPS}) &lt; 1 or string-length(${c_mapsme_gps_lat}) &lt; 1 or string-length(${c_mapsme_gps_lng}) &lt; 1)</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>. &gt;= -90 and . &lt;= 90</t>
+  </si>
+  <si>
+    <t>. &gt;= -180 and . &lt;= 180</t>
+  </si>
+  <si>
+    <t>El rango válido de latitud en grados es -90 y +90</t>
+  </si>
+  <si>
+    <t>El rango válido de longitud en grados es -180 y +180</t>
+  </si>
+  <si>
+    <t>constraint_message::Spanish</t>
   </si>
 </sst>
 </file>
@@ -679,12 +739,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:F1048576"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -694,9 +754,12 @@
     <col min="3" max="3" width="47.17578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.1171875" customWidth="1"/>
     <col min="5" max="5" width="9.76171875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.8203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.41015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -712,306 +775,457 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="I7" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>67</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.6">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" s="5" customFormat="1" ht="15.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.6">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1419,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1447,13 +1661,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C2">
-        <v>20191023</v>
+        <v>20191120</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
